--- a/data/taxa.xlsx
+++ b/data/taxa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/zoopCHL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104819E95F57B85BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059B603F-8267-4764-9046-A4CC19DA8A3E}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC104819E95F57B85BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACFF7B3-7FE4-48FF-9FCF-30FA4B33E283}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>Taxon</t>
   </si>
@@ -36,27 +36,9 @@
     <t>FeedingGuild</t>
   </si>
   <si>
-    <t>Tortanus</t>
-  </si>
-  <si>
-    <t>Syncheata</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Pseudodiaptomus</t>
-  </si>
-  <si>
-    <t>Limnoithona</t>
-  </si>
-  <si>
-    <t>Kerottela</t>
-  </si>
-  <si>
-    <t>Eurytemora</t>
-  </si>
-  <si>
     <t>Daphnia</t>
   </si>
   <si>
@@ -66,12 +48,6 @@
     <t>All Cladocera</t>
   </si>
   <si>
-    <t>Acartiella</t>
-  </si>
-  <si>
-    <t>Acanthocyclops</t>
-  </si>
-  <si>
     <t>Meso</t>
   </si>
   <si>
@@ -105,53 +81,194 @@
     <t>Calanoid</t>
   </si>
   <si>
-    <t>H. Logirostris</t>
-  </si>
-  <si>
-    <t>Pseudodiaptomus adult</t>
-  </si>
-  <si>
-    <t>Pseudodiaptomus juvenile</t>
-  </si>
-  <si>
-    <t>Eurytemora adult</t>
-  </si>
-  <si>
-    <t>Eurytemora juvenile</t>
-  </si>
-  <si>
-    <t>Tortanus adult</t>
-  </si>
-  <si>
-    <t>Tortanus juvenile</t>
-  </si>
-  <si>
-    <t>Acartiella adult</t>
-  </si>
-  <si>
-    <t>Acartiella juvenile</t>
-  </si>
-  <si>
-    <t>Limnoithona adult</t>
-  </si>
-  <si>
-    <t>Limnoithona juvenile</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Adult Copepod</t>
+  </si>
+  <si>
+    <t>Juvenile Copepod</t>
+  </si>
+  <si>
+    <t>Taxlifestage</t>
+  </si>
+  <si>
+    <t>Acanthocyclops_UnID Adult</t>
+  </si>
+  <si>
+    <t>Acartiella_UnID Juvenile</t>
+  </si>
+  <si>
+    <t>Acartiella_UnID Adult</t>
+  </si>
+  <si>
+    <t>Acartiella_UnID</t>
+  </si>
+  <si>
+    <t>Bosmina longirostris Adult</t>
+  </si>
+  <si>
+    <t>Daphnia_UnID Adult</t>
+  </si>
+  <si>
+    <t>Eurytemora affinis Adult</t>
+  </si>
+  <si>
+    <t>Eurytemora affinis Juvenile</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus forbesi Adult</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus_UnID Juvenile</t>
+  </si>
+  <si>
+    <t>Tortanus_UnID Juvenile</t>
+  </si>
+  <si>
+    <t>Tortanus_UnID Adult</t>
+  </si>
+  <si>
+    <t>Limnoithona Adult</t>
+  </si>
+  <si>
+    <t>Limnoithona Juvenile</t>
+  </si>
+  <si>
+    <t>Keratella Adult</t>
+  </si>
+  <si>
+    <t>Synchaeta Adult</t>
+  </si>
+  <si>
+    <t>Hyperacanthomysis longirostris</t>
+  </si>
+  <si>
+    <t>shortname</t>
+  </si>
+  <si>
+    <t>Acantho.</t>
+  </si>
+  <si>
+    <t>Hyperac.</t>
+  </si>
+  <si>
+    <t>Acart. Ad.</t>
+  </si>
+  <si>
+    <t>Acart. Juv.</t>
+  </si>
+  <si>
+    <t>Eury. Ad.</t>
+  </si>
+  <si>
+    <t>Tort. Ad.</t>
+  </si>
+  <si>
+    <t>Eury. Juv.</t>
+  </si>
+  <si>
+    <t>Keratella</t>
+  </si>
+  <si>
+    <t>Limno. Ad.</t>
+  </si>
+  <si>
+    <t>Limno. Juv.</t>
+  </si>
+  <si>
+    <t>Pseudo. Ad.</t>
+  </si>
+  <si>
+    <t>Pseudo. Juv.</t>
+  </si>
+  <si>
+    <t>Synchaeta</t>
+  </si>
+  <si>
+    <t>Tort. Juv.</t>
+  </si>
+  <si>
+    <t>Acanthocyclops sp.</t>
+  </si>
+  <si>
+    <t>A. sinensis</t>
+  </si>
+  <si>
+    <t>A. sinensis adult</t>
+  </si>
+  <si>
+    <t>A. sinensis juvenile</t>
+  </si>
+  <si>
+    <t>B. logirostris</t>
+  </si>
+  <si>
+    <t>Daphnia sp.</t>
+  </si>
+  <si>
+    <t>E. carolleeae</t>
+  </si>
+  <si>
+    <t>E. carolleeae adult</t>
+  </si>
+  <si>
+    <t>E. carolleeae juvenile</t>
+  </si>
+  <si>
+    <t>H. logirostris</t>
+  </si>
+  <si>
+    <t>Kerottela sp.</t>
+  </si>
+  <si>
+    <t>Limnoithona sp.</t>
+  </si>
+  <si>
+    <t>Limnoithona sp. adult</t>
+  </si>
+  <si>
+    <t>Limnoithona sp. juvenile</t>
+  </si>
+  <si>
+    <t>P. forbesi</t>
+  </si>
+  <si>
+    <t>P. forbesi adult</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus sp. juvenile</t>
+  </si>
+  <si>
+    <t>Syncheata sp.</t>
+  </si>
+  <si>
+    <t>Tortanus sp.</t>
+  </si>
+  <si>
+    <t>Tortanus sp. adult</t>
+  </si>
+  <si>
+    <t>Tortanus sp. juvenile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,8 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,311 +576,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
+      <c r="G23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>